--- a/models_comparison_stats.xlsx
+++ b/models_comparison_stats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kanakgarg/Desktop/Kanak/FinanceRL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{963EB875-CA90-1848-BAA7-B743D5D03D4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB70493-42FA-9A4C-A4EC-3C602B5FAA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20120" xr2:uid="{45292A10-7B8F-A141-8F81-0B81EE5AB190}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{45292A10-7B8F-A141-8F81-0B81EE5AB190}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -486,7 +486,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
